--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint4.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44385B73-CA51-4DE8-A3CD-C5C91B65E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D13E69-4EE1-4FC2-9FB7-428922909327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{98AE059D-10BC-402E-BA98-BC5919AC0BD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{98AE059D-10BC-402E-BA98-BC5919AC0BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="AcceptDecline New Village onWeb" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Module Code</t>
   </si>
@@ -101,9 +101,6 @@
     <t>TC09</t>
   </si>
   <si>
-    <t>Check Accept/Decline</t>
-  </si>
-  <si>
     <t>Click on "✓" button</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Internet is connected, Login successful, Accept/Decline page is loaded </t>
-  </si>
-  <si>
-    <t>Check Create a new village</t>
   </si>
   <si>
     <t>1. Select Ward
@@ -209,6 +203,33 @@
   </si>
   <si>
     <t>Switch to Accept/Decline Homepage Page</t>
+  </si>
+  <si>
+    <t>Check Accept new village success</t>
+  </si>
+  <si>
+    <t>Check Decline new village success</t>
+  </si>
+  <si>
+    <t>Check Create a new village success</t>
+  </si>
+  <si>
+    <t>Declare empty ward</t>
+  </si>
+  <si>
+    <t>Declare name of craft village with special character</t>
+  </si>
+  <si>
+    <t>Declare invalid longtitude</t>
+  </si>
+  <si>
+    <t>Declare invalid latitude</t>
+  </si>
+  <si>
+    <t>Declare empty description about craft village</t>
+  </si>
+  <si>
+    <t>Declare empty name of craft village</t>
   </si>
 </sst>
 </file>
@@ -631,14 +652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E109AB-9565-4A98-8303-E66AFE94D84C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -650,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="3"/>
@@ -674,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
@@ -749,16 +770,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -772,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -795,16 +816,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -818,16 +839,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -841,16 +862,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -864,16 +885,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -887,16 +908,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -910,16 +931,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
@@ -933,16 +954,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -969,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D41B59A-617A-4E73-B170-89283556C004}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="3"/>
@@ -1012,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
@@ -1087,16 +1108,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -1110,16 +1131,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
